--- a/Excel/Player/PlayerInfo.xlsx
+++ b/Excel/Player/PlayerInfo.xlsx
@@ -1039,7 +1039,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>

--- a/Excel/Player/PlayerInfo.xlsx
+++ b/Excel/Player/PlayerInfo.xlsx
@@ -1039,7 +1039,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1104,7 +1104,7 @@
         <v>12</v>
       </c>
       <c r="C5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="1">
         <v>18</v>
@@ -1118,7 +1118,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1">
         <v>20</v>
@@ -1146,7 +1146,7 @@
         <v>15</v>
       </c>
       <c r="C8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="1">
         <v>19</v>
@@ -1160,7 +1160,7 @@
         <v>16</v>
       </c>
       <c r="C9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="1">
         <v>33</v>
